--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863040</v>
+        <v>111863001</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,35 +696,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655235.4020021557</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R2" t="n">
-        <v>6634878.090185729</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863218</v>
+        <v>111863402</v>
       </c>
       <c r="B3" t="n">
-        <v>90021</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6031</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -848,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655137.9235184891</v>
+        <v>655199.5794486763</v>
       </c>
       <c r="R3" t="n">
-        <v>6634821.151011234</v>
+        <v>6634769.85474884</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -883,7 +887,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -893,7 +897,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111863269</v>
+        <v>111863073</v>
       </c>
       <c r="B4" t="n">
-        <v>85062</v>
+        <v>88899</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,26 +940,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>249278</v>
+        <v>3286</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -970,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655135.2812587479</v>
+        <v>655228.290648401</v>
       </c>
       <c r="R4" t="n">
-        <v>6634799.89438487</v>
+        <v>6634879.303300899</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1005,7 +1009,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1015,12 +1019,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:02</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1047,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863073</v>
+        <v>111863269</v>
       </c>
       <c r="B5" t="n">
-        <v>88899</v>
+        <v>85062</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,26 +1062,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3286</v>
+        <v>249278</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1097,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655228.290648401</v>
+        <v>655135.2812587479</v>
       </c>
       <c r="R5" t="n">
-        <v>6634879.303300899</v>
+        <v>6634799.89438487</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1142,7 +1141,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111863001</v>
+        <v>111862959</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,26 +1189,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1254,7 +1258,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,7 +1268,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Under gran och tall i en svacka</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1291,10 +1300,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111863288</v>
+        <v>111863040</v>
       </c>
       <c r="B7" t="n">
-        <v>85062</v>
+        <v>90687</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,37 +1312,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>249278</v>
+        <v>5964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655134.5683182024</v>
+        <v>655235.4020021557</v>
       </c>
       <c r="R7" t="n">
-        <v>6634792.815828164</v>
+        <v>6634878.090185729</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1386,7 +1386,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1413,10 +1418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111862959</v>
+        <v>111863218</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>90021</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1429,26 +1434,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>6031</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1459,14 +1464,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655217.6931657954</v>
+        <v>655137.9235184891</v>
       </c>
       <c r="R8" t="n">
-        <v>6634939.780080916</v>
+        <v>6634821.151011234</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1498,7 +1503,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1508,12 +1513,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:37</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Under gran och tall i en svacka</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1667,10 +1667,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111863402</v>
+        <v>111863288</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>85062</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,25 +1679,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>249278</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655199.5794486763</v>
+        <v>655134.5683182024</v>
       </c>
       <c r="R10" t="n">
-        <v>6634769.85474884</v>
+        <v>6634792.815828164</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863001</v>
+        <v>111863073</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -726,14 +726,14 @@
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655217.6931657954</v>
+        <v>655228.290648401</v>
       </c>
       <c r="R2" t="n">
-        <v>6634939.780080916</v>
+        <v>6634879.303300899</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863402</v>
+        <v>111863040</v>
       </c>
       <c r="B3" t="n">
         <v>90687</v>
@@ -835,16 +835,7 @@
           <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -852,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655199.5794486763</v>
+        <v>655235.4020021557</v>
       </c>
       <c r="R3" t="n">
-        <v>6634769.85474884</v>
+        <v>6634878.090185729</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -897,7 +888,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111863073</v>
+        <v>111863218</v>
       </c>
       <c r="B4" t="n">
-        <v>88899</v>
+        <v>90021</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,30 +932,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3286</v>
+        <v>6031</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -974,10 +970,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655228.290648401</v>
+        <v>655137.9235184891</v>
       </c>
       <c r="R4" t="n">
-        <v>6634879.303300899</v>
+        <v>6634821.151011234</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,7 +1005,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1019,7 +1015,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863269</v>
+        <v>111863045</v>
       </c>
       <c r="B5" t="n">
-        <v>85062</v>
+        <v>88899</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,26 +1058,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>249278</v>
+        <v>3286</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1096,10 +1092,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655135.2812587479</v>
+        <v>655233.932825509</v>
       </c>
       <c r="R5" t="n">
-        <v>6634799.89438487</v>
+        <v>6634889.105171775</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1131,7 +1127,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1141,12 +1137,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
+          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,10 +1169,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111862959</v>
+        <v>111863288</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>85062</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,30 +1181,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>249278</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,14 +1215,14 @@
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655217.6931657954</v>
+        <v>655134.5683182024</v>
       </c>
       <c r="R6" t="n">
-        <v>6634939.780080916</v>
+        <v>6634792.815828164</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,7 +1254,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1268,12 +1264,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:37</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Under gran och tall i en svacka</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1300,10 +1291,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111863040</v>
+        <v>111863269</v>
       </c>
       <c r="B7" t="n">
-        <v>90687</v>
+        <v>85062</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1312,28 +1303,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>249278</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655235.4020021557</v>
+        <v>655135.2812587479</v>
       </c>
       <c r="R7" t="n">
-        <v>6634878.090185729</v>
+        <v>6634799.89438487</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,10 +1418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111863218</v>
+        <v>111863001</v>
       </c>
       <c r="B8" t="n">
-        <v>90021</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1434,21 +1434,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6031</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1464,14 +1464,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655137.9235184891</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R8" t="n">
-        <v>6634821.151011234</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,10 +1540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111863045</v>
+        <v>111863402</v>
       </c>
       <c r="B9" t="n">
-        <v>88899</v>
+        <v>90687</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1552,30 +1552,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655233.932825509</v>
+        <v>655199.5794486763</v>
       </c>
       <c r="R9" t="n">
-        <v>6634889.105171775</v>
+        <v>6634769.85474884</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1635,12 +1635,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Under gran i svacka</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1667,10 +1662,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111863288</v>
+        <v>111862959</v>
       </c>
       <c r="B10" t="n">
-        <v>85062</v>
+        <v>90687</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,30 +1674,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>249278</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1713,14 +1708,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655134.5683182024</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R10" t="n">
-        <v>6634792.815828164</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1752,7 +1747,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1762,7 +1757,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Under gran och tall i en svacka</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863073</v>
+        <v>111863269</v>
       </c>
       <c r="B2" t="n">
-        <v>88899</v>
+        <v>85062</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3286</v>
+        <v>249278</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655228.290648401</v>
+        <v>655135.2812587479</v>
       </c>
       <c r="R2" t="n">
-        <v>6634879.303300899</v>
+        <v>6634799.89438487</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +775,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +807,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863040</v>
+        <v>111863045</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>88899</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,28 +819,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>3286</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -843,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655235.4020021557</v>
+        <v>655233.932825509</v>
       </c>
       <c r="R3" t="n">
-        <v>6634878.090185729</v>
+        <v>6634889.105171775</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,7 +892,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -888,12 +902,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1042,10 +1056,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863045</v>
+        <v>111863288</v>
       </c>
       <c r="B5" t="n">
-        <v>88899</v>
+        <v>85062</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,26 +1072,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3286</v>
+        <v>249278</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1092,10 +1106,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655233.932825509</v>
+        <v>655134.5683182024</v>
       </c>
       <c r="R5" t="n">
-        <v>6634889.105171775</v>
+        <v>6634792.815828164</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,7 +1141,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1137,12 +1151,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Under gran i svacka</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,10 +1178,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111863288</v>
+        <v>111863402</v>
       </c>
       <c r="B6" t="n">
-        <v>85062</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1181,25 +1190,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>249278</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1219,10 +1228,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655134.5683182024</v>
+        <v>655199.5794486763</v>
       </c>
       <c r="R6" t="n">
-        <v>6634792.815828164</v>
+        <v>6634769.85474884</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1291,10 +1300,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111863269</v>
+        <v>111863073</v>
       </c>
       <c r="B7" t="n">
-        <v>85062</v>
+        <v>88899</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1307,26 +1316,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>249278</v>
+        <v>3286</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1341,10 +1350,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655135.2812587479</v>
+        <v>655228.290648401</v>
       </c>
       <c r="R7" t="n">
-        <v>6634799.89438487</v>
+        <v>6634879.303300899</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,7 +1385,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1386,12 +1395,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:02</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,10 +1422,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111863001</v>
+        <v>111863040</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1434,44 +1438,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655217.6931657954</v>
+        <v>655235.4020021557</v>
       </c>
       <c r="R8" t="n">
-        <v>6634939.780080916</v>
+        <v>6634878.090185729</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1503,7 +1498,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1513,7 +1508,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,10 +1540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111863402</v>
+        <v>111863001</v>
       </c>
       <c r="B9" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1556,21 +1556,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1586,14 +1586,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655199.5794486763</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R9" t="n">
-        <v>6634769.85474884</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863269</v>
+        <v>111863040</v>
       </c>
       <c r="B2" t="n">
-        <v>85062</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,37 +692,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>249278</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -730,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655135.2812587479</v>
+        <v>655235.4020021557</v>
       </c>
       <c r="R2" t="n">
-        <v>6634799.89438487</v>
+        <v>6634878.090185729</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,12 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -807,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863045</v>
+        <v>111863073</v>
       </c>
       <c r="B3" t="n">
         <v>88899</v>
@@ -842,7 +833,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -857,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655233.932825509</v>
+        <v>655228.290648401</v>
       </c>
       <c r="R3" t="n">
-        <v>6634889.105171775</v>
+        <v>6634879.303300899</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -903,11 +894,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>10:50</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111863218</v>
+        <v>111863288</v>
       </c>
       <c r="B4" t="n">
-        <v>90021</v>
+        <v>85062</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,25 +932,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6031</v>
+        <v>249278</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -984,10 +970,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655137.9235184891</v>
+        <v>655134.5683182024</v>
       </c>
       <c r="R4" t="n">
-        <v>6634821.151011234</v>
+        <v>6634792.815828164</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,7 +1005,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1029,7 +1015,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1056,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863288</v>
+        <v>111863045</v>
       </c>
       <c r="B5" t="n">
-        <v>85062</v>
+        <v>88899</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1072,26 +1058,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>249278</v>
+        <v>3286</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1106,10 +1092,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655134.5683182024</v>
+        <v>655233.932825509</v>
       </c>
       <c r="R5" t="n">
-        <v>6634792.815828164</v>
+        <v>6634889.105171775</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,7 +1127,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1151,7 +1137,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1178,10 +1169,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111863402</v>
+        <v>111863218</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>90021</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1194,21 +1185,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>6031</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1228,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655199.5794486763</v>
+        <v>655137.9235184891</v>
       </c>
       <c r="R6" t="n">
-        <v>6634769.85474884</v>
+        <v>6634821.151011234</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1263,7 +1254,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1273,7 +1264,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1300,10 +1291,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111863073</v>
+        <v>111863269</v>
       </c>
       <c r="B7" t="n">
-        <v>88899</v>
+        <v>85062</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1316,26 +1307,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3286</v>
+        <v>249278</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1350,10 +1341,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655228.290648401</v>
+        <v>655135.2812587479</v>
       </c>
       <c r="R7" t="n">
-        <v>6634879.303300899</v>
+        <v>6634799.89438487</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,7 +1376,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1395,7 +1386,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1422,10 +1418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111863040</v>
+        <v>111863001</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1438,35 +1434,44 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655235.4020021557</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R8" t="n">
-        <v>6634878.090185729</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1498,7 +1503,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1508,12 +1513,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,10 +1540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111863001</v>
+        <v>111863402</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1556,21 +1556,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1586,14 +1586,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655217.6931657954</v>
+        <v>655199.5794486763</v>
       </c>
       <c r="R9" t="n">
-        <v>6634939.780080916</v>
+        <v>6634769.85474884</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863040</v>
+        <v>111863402</v>
       </c>
       <c r="B2" t="n">
         <v>90687</v>
@@ -713,7 +713,16 @@
           <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -721,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655235.4020021557</v>
+        <v>655199.5794486763</v>
       </c>
       <c r="R2" t="n">
-        <v>6634878.090185729</v>
+        <v>6634769.85474884</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863073</v>
+        <v>111863040</v>
       </c>
       <c r="B3" t="n">
-        <v>88899</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,37 +814,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655228.290648401</v>
+        <v>655235.4020021557</v>
       </c>
       <c r="R3" t="n">
-        <v>6634879.303300899</v>
+        <v>6634878.090185729</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -883,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -893,7 +888,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111863288</v>
+        <v>111863269</v>
       </c>
       <c r="B4" t="n">
         <v>85062</v>
@@ -955,7 +955,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655134.5683182024</v>
+        <v>655135.2812587479</v>
       </c>
       <c r="R4" t="n">
-        <v>6634792.815828164</v>
+        <v>6634799.89438487</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,6 +1016,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1042,10 +1047,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863045</v>
+        <v>111863001</v>
       </c>
       <c r="B5" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,30 +1059,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1088,14 +1093,14 @@
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655233.932825509</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R5" t="n">
-        <v>6634889.105171775</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,7 +1132,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1137,12 +1142,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Under gran i svacka</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,10 +1169,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111863218</v>
+        <v>111863073</v>
       </c>
       <c r="B6" t="n">
-        <v>90021</v>
+        <v>88899</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1181,30 +1181,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6031</v>
+        <v>3286</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655137.9235184891</v>
+        <v>655228.290648401</v>
       </c>
       <c r="R6" t="n">
-        <v>6634821.151011234</v>
+        <v>6634879.303300899</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1291,10 +1291,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111863269</v>
+        <v>111863218</v>
       </c>
       <c r="B7" t="n">
-        <v>85062</v>
+        <v>90021</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,30 +1303,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>249278</v>
+        <v>6031</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655135.2812587479</v>
+        <v>655137.9235184891</v>
       </c>
       <c r="R7" t="n">
-        <v>6634799.89438487</v>
+        <v>6634821.151011234</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1386,12 +1386,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:02</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,10 +1413,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111863001</v>
+        <v>111863288</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>85062</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1430,25 +1425,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>249278</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1464,14 +1459,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655217.6931657954</v>
+        <v>655134.5683182024</v>
       </c>
       <c r="R8" t="n">
-        <v>6634939.780080916</v>
+        <v>6634792.815828164</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1503,7 +1498,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1513,7 +1508,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,7 +1535,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111863402</v>
+        <v>111862959</v>
       </c>
       <c r="B9" t="n">
         <v>90687</v>
@@ -1575,7 +1570,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1586,14 +1581,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655199.5794486763</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R9" t="n">
-        <v>6634769.85474884</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1625,7 +1620,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1635,7 +1630,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Under gran och tall i en svacka</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1662,10 +1662,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111862959</v>
+        <v>111863045</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>88899</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1674,25 +1674,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>3286</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1708,14 +1708,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655217.6931657954</v>
+        <v>655233.932825509</v>
       </c>
       <c r="R10" t="n">
-        <v>6634939.780080916</v>
+        <v>6634889.105171775</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Under gran och tall i en svacka</t>
+          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863402</v>
+        <v>111863001</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -726,14 +726,14 @@
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655199.5794486763</v>
+        <v>655217.6931657954</v>
       </c>
       <c r="R2" t="n">
-        <v>6634769.85474884</v>
+        <v>6634939.780080916</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863040</v>
+        <v>111863218</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>90021</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,24 +818,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>6031</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -843,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655235.4020021557</v>
+        <v>655137.9235184891</v>
       </c>
       <c r="R3" t="n">
-        <v>6634878.090185729</v>
+        <v>6634821.151011234</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,7 +887,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -888,12 +897,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111863269</v>
+        <v>111863402</v>
       </c>
       <c r="B4" t="n">
-        <v>85062</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,30 +936,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>249278</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -970,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655135.2812587479</v>
+        <v>655199.5794486763</v>
       </c>
       <c r="R4" t="n">
-        <v>6634799.89438487</v>
+        <v>6634769.85474884</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,11 +1020,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>11:02</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1047,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863001</v>
+        <v>111863073</v>
       </c>
       <c r="B5" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,30 +1058,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1093,14 +1092,14 @@
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655217.6931657954</v>
+        <v>655228.290648401</v>
       </c>
       <c r="R5" t="n">
-        <v>6634939.780080916</v>
+        <v>6634879.303300899</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1142,7 +1141,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111863073</v>
+        <v>111863288</v>
       </c>
       <c r="B6" t="n">
-        <v>88899</v>
+        <v>85062</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,26 +1184,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3286</v>
+        <v>249278</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,10 +1218,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655228.290648401</v>
+        <v>655134.5683182024</v>
       </c>
       <c r="R6" t="n">
-        <v>6634879.303300899</v>
+        <v>6634792.815828164</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1254,7 +1253,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,7 +1263,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1291,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111863218</v>
+        <v>111863269</v>
       </c>
       <c r="B7" t="n">
-        <v>90021</v>
+        <v>85062</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,30 +1302,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6031</v>
+        <v>249278</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1341,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655137.9235184891</v>
+        <v>655135.2812587479</v>
       </c>
       <c r="R7" t="n">
-        <v>6634821.151011234</v>
+        <v>6634799.89438487</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1386,7 +1385,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1413,10 +1417,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111863288</v>
+        <v>111863040</v>
       </c>
       <c r="B8" t="n">
-        <v>85062</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1425,37 +1429,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>249278</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1463,10 +1458,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655134.5683182024</v>
+        <v>655235.4020021557</v>
       </c>
       <c r="R8" t="n">
-        <v>6634792.815828164</v>
+        <v>6634878.090185729</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1498,7 +1493,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1508,7 +1503,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863001</v>
+        <v>111863073</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -726,14 +726,14 @@
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655217.6931657954</v>
+        <v>655228</v>
       </c>
       <c r="R2" t="n">
-        <v>6634939.780080916</v>
+        <v>6634879</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655137.9235184891</v>
+        <v>655138</v>
       </c>
       <c r="R3" t="n">
-        <v>6634821.151011234</v>
+        <v>6634821</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111863402</v>
+        <v>111863001</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -970,14 +970,14 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655199.5794486763</v>
+        <v>655218</v>
       </c>
       <c r="R4" t="n">
-        <v>6634769.85474884</v>
+        <v>6634940</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863073</v>
+        <v>111863040</v>
       </c>
       <c r="B5" t="n">
-        <v>88899</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,37 +1058,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1096,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655228.290648401</v>
+        <v>655235</v>
       </c>
       <c r="R5" t="n">
-        <v>6634879.303300899</v>
+        <v>6634878</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1131,7 +1122,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1141,7 +1132,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1218,10 +1214,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655134.5683182024</v>
+        <v>655135</v>
       </c>
       <c r="R6" t="n">
-        <v>6634792.815828164</v>
+        <v>6634793</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1290,10 +1286,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111863269</v>
+        <v>111862959</v>
       </c>
       <c r="B7" t="n">
-        <v>85062</v>
+        <v>90687</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,30 +1298,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>249278</v>
+        <v>5964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1336,14 +1332,14 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655135.2812587479</v>
+        <v>655218</v>
       </c>
       <c r="R7" t="n">
-        <v>6634799.89438487</v>
+        <v>6634940</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1375,7 +1371,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,12 +1381,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
+          <t>Under gran och tall i en svacka</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1417,10 +1413,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111863040</v>
+        <v>111863269</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>85062</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1429,28 +1425,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>249278</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1458,10 +1463,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655235.4020021557</v>
+        <v>655135</v>
       </c>
       <c r="R8" t="n">
-        <v>6634878.090185729</v>
+        <v>6634800</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,7 +1498,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1503,12 +1508,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1535,7 +1540,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111862959</v>
+        <v>111863402</v>
       </c>
       <c r="B9" t="n">
         <v>90687</v>
@@ -1570,7 +1575,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1581,14 +1586,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655217.6931657954</v>
+        <v>655200</v>
       </c>
       <c r="R9" t="n">
-        <v>6634939.780080916</v>
+        <v>6634770</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1620,7 +1625,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1630,12 +1635,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:37</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Under gran och tall i en svacka</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655233.932825509</v>
+        <v>655234</v>
       </c>
       <c r="R10" t="n">
-        <v>6634889.105171775</v>
+        <v>6634889</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111863073</v>
       </c>
       <c r="B2" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863218</v>
+        <v>111863045</v>
       </c>
       <c r="B3" t="n">
-        <v>90021</v>
+        <v>89033</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,30 +814,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6031</v>
+        <v>3286</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655138</v>
+        <v>655234</v>
       </c>
       <c r="R3" t="n">
-        <v>6634821</v>
+        <v>6634889</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -897,7 +897,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,10 +929,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111863001</v>
+        <v>111862959</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>90821</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,26 +945,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1009,7 +1014,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1019,7 +1024,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Under gran och tall i en svacka</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,10 +1056,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111863040</v>
+        <v>111863001</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90466</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,35 +1072,44 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Charlottenberg (Charlottenberg), Upl</t>
+          <t>Charlottenberg, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655235</v>
+        <v>655218</v>
       </c>
       <c r="R5" t="n">
-        <v>6634878</v>
+        <v>6634940</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1122,7 +1141,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1132,12 +1151,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Halv häxring, 3 m i diameter</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,10 +1178,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111863288</v>
+        <v>111863269</v>
       </c>
       <c r="B6" t="n">
-        <v>85062</v>
+        <v>85183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1199,7 +1213,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1217,7 +1231,7 @@
         <v>655135</v>
       </c>
       <c r="R6" t="n">
-        <v>6634793</v>
+        <v>6634800</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,6 +1274,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1286,10 +1305,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111862959</v>
+        <v>111863218</v>
       </c>
       <c r="B7" t="n">
-        <v>90687</v>
+        <v>90155</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,26 +1321,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>6031</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1332,14 +1351,14 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Charlottenberg, Upl</t>
+          <t>Charlottenberg (Charlottenberg), Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655218</v>
+        <v>655138</v>
       </c>
       <c r="R7" t="n">
-        <v>6634940</v>
+        <v>6634821</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1371,7 +1390,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1381,12 +1400,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:37</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Under gran och tall i en svacka</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1413,10 +1427,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111863269</v>
+        <v>111863288</v>
       </c>
       <c r="B8" t="n">
-        <v>85062</v>
+        <v>85183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1448,7 +1462,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1466,7 +1480,7 @@
         <v>655135</v>
       </c>
       <c r="R8" t="n">
-        <v>6634800</v>
+        <v>6634793</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1509,11 +1523,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>11:02</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>4 ex i gräsglänta under gran och tall.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,10 +1549,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111863402</v>
+        <v>111863040</v>
       </c>
       <c r="B9" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1573,16 +1582,7 @@
           <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655200</v>
+        <v>655235</v>
       </c>
       <c r="R9" t="n">
-        <v>6634770</v>
+        <v>6634878</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1635,7 +1635,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Halv häxring, 3 m i diameter</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1662,10 +1667,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111863045</v>
+        <v>111863402</v>
       </c>
       <c r="B10" t="n">
-        <v>88899</v>
+        <v>90821</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1674,30 +1679,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1712,10 +1717,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655234</v>
+        <v>655200</v>
       </c>
       <c r="R10" t="n">
-        <v>6634889</v>
+        <v>6634770</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1747,7 +1752,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1757,12 +1762,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Under gran i svacka</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 29803-2023.xlsx
+++ b/artfynd/A 29803-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111863073</v>
+        <v>111863045</v>
       </c>
       <c r="B2" t="n">
         <v>89033</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655228</v>
+        <v>655234</v>
       </c>
       <c r="R2" t="n">
-        <v>6634879</v>
+        <v>6634889</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,6 +776,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>10:50</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,7 +807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111863045</v>
+        <v>111863073</v>
       </c>
       <c r="B3" t="n">
         <v>89033</v>
@@ -837,7 +842,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -852,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655234</v>
+        <v>655228</v>
       </c>
       <c r="R3" t="n">
-        <v>6634889</v>
+        <v>6634879</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,11 +903,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>10:50</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Under gran i svacka</t>
         </is>
       </c>
       <c r="AD3" t="b">
